--- a/classlist.xlsx
+++ b/classlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NitroQuake\Downloads\Code Folder\Java\Scheduler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NitroQuake\Downloads\Scheduler GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781C6274-76F9-4A9A-BEA9-E71AB9CD3310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8262A06E-C10E-4BBA-9C8E-E76559A457D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{158F59F9-12D3-43FB-B3F8-B40C1404F3D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="196">
   <si>
     <t>Algebra 2</t>
   </si>
@@ -615,6 +615,15 @@
   </si>
   <si>
     <t>Yusuf</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -966,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B60E540-2824-4767-945E-C47CF57DD70E}">
-  <dimension ref="A2:E206"/>
+  <dimension ref="A2:F206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +987,7 @@
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -994,8 +1003,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1011,8 +1023,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1043,11 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1063,11 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1062,8 +1083,11 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1079,8 +1103,11 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1096,8 +1123,11 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1113,8 +1143,11 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1130,8 +1163,11 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1147,8 +1183,11 @@
       <c r="E11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1164,8 +1203,11 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1181,8 +1223,11 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1198,8 +1243,11 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1215,8 +1263,11 @@
       <c r="E15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1232,8 +1283,11 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1249,8 +1303,11 @@
       <c r="E17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1266,8 +1323,11 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1283,8 +1343,11 @@
       <c r="E19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1300,8 +1363,11 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1317,8 +1383,11 @@
       <c r="E21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1334,8 +1403,11 @@
       <c r="E23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1351,8 +1423,11 @@
       <c r="E24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1368,8 +1443,11 @@
       <c r="E25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1385,8 +1463,11 @@
       <c r="E26" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1402,8 +1483,11 @@
       <c r="E27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1419,8 +1503,11 @@
       <c r="E28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1436,8 +1523,11 @@
       <c r="E29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1453,8 +1543,11 @@
       <c r="E30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1470,8 +1563,11 @@
       <c r="E31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1487,8 +1583,11 @@
       <c r="E32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1504,8 +1603,11 @@
       <c r="E33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1521,8 +1623,11 @@
       <c r="E34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1538,8 +1643,11 @@
       <c r="E35" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1555,8 +1663,11 @@
       <c r="E36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1683,11 @@
       <c r="E37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1703,11 @@
       <c r="E38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1606,8 +1723,11 @@
       <c r="E39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1623,8 +1743,11 @@
       <c r="E40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1640,8 +1763,11 @@
       <c r="E41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1657,8 +1783,11 @@
       <c r="E42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1674,8 +1803,11 @@
       <c r="E43" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1691,8 +1823,11 @@
       <c r="E45" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1708,8 +1843,11 @@
       <c r="E46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1725,8 +1863,11 @@
       <c r="E47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1742,8 +1883,11 @@
       <c r="E48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1759,8 +1903,11 @@
       <c r="E49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1776,8 +1923,11 @@
       <c r="E50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1793,8 +1943,11 @@
       <c r="E51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1810,8 +1963,11 @@
       <c r="E52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1827,8 +1983,11 @@
       <c r="E53" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -1844,8 +2003,11 @@
       <c r="E54" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -1861,8 +2023,11 @@
       <c r="E55" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1878,8 +2043,11 @@
       <c r="E56" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1895,8 +2063,11 @@
       <c r="E57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -1912,8 +2083,11 @@
       <c r="E58" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -1929,8 +2103,11 @@
       <c r="E59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1946,8 +2123,11 @@
       <c r="E60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1963,8 +2143,11 @@
       <c r="E61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1980,8 +2163,11 @@
       <c r="E62" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -1997,8 +2183,11 @@
       <c r="E65" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -2014,8 +2203,11 @@
       <c r="E66" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2031,8 +2223,11 @@
       <c r="E67" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2048,8 +2243,11 @@
       <c r="E68" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -2065,8 +2263,11 @@
       <c r="E69" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2082,8 +2283,11 @@
       <c r="E70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -2099,8 +2303,11 @@
       <c r="E71" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2116,8 +2323,11 @@
       <c r="E72" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2133,8 +2343,11 @@
       <c r="E73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2150,8 +2363,11 @@
       <c r="E74" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2167,8 +2383,11 @@
       <c r="E75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -2184,8 +2403,11 @@
       <c r="E76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2201,8 +2423,11 @@
       <c r="E77" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -2218,8 +2443,11 @@
       <c r="E78" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2235,8 +2463,11 @@
       <c r="E79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2252,8 +2483,11 @@
       <c r="E80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -2269,8 +2503,11 @@
       <c r="E81" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -2286,8 +2523,11 @@
       <c r="E82" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -2303,8 +2543,11 @@
       <c r="E83" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -2320,8 +2563,11 @@
       <c r="E86" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -2337,8 +2583,11 @@
       <c r="E87" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -2354,8 +2603,11 @@
       <c r="E88" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -2371,8 +2623,11 @@
       <c r="E89" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -2388,8 +2643,11 @@
       <c r="E90" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -2405,8 +2663,11 @@
       <c r="E91" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -2422,8 +2683,11 @@
       <c r="E92" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2439,8 +2703,11 @@
       <c r="E93" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2456,8 +2723,11 @@
       <c r="E94" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -2473,8 +2743,11 @@
       <c r="E95" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -2490,8 +2763,11 @@
       <c r="E96" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -2507,8 +2783,11 @@
       <c r="E97" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -2524,8 +2803,11 @@
       <c r="E98" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>91</v>
       </c>
@@ -2541,8 +2823,11 @@
       <c r="E99" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -2558,8 +2843,11 @@
       <c r="E100" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -2575,8 +2863,11 @@
       <c r="E103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2592,8 +2883,11 @@
       <c r="E104" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2609,8 +2903,11 @@
       <c r="E105" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2626,8 +2923,11 @@
       <c r="E106" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2643,8 +2943,11 @@
       <c r="E107" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -2660,8 +2963,11 @@
       <c r="E108" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -2677,8 +2983,11 @@
       <c r="E109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2694,8 +3003,11 @@
       <c r="E110" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2711,8 +3023,11 @@
       <c r="E111" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2728,8 +3043,11 @@
       <c r="E112" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2745,8 +3063,11 @@
       <c r="E113" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2762,8 +3083,11 @@
       <c r="E114" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2779,8 +3103,11 @@
       <c r="E115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2796,8 +3123,11 @@
       <c r="E116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2813,8 +3143,11 @@
       <c r="E117" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2830,8 +3163,11 @@
       <c r="E118" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2847,8 +3183,11 @@
       <c r="E119" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2864,8 +3203,11 @@
       <c r="E120" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2881,8 +3223,11 @@
       <c r="E121" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2898,8 +3243,11 @@
       <c r="E122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2915,8 +3263,11 @@
       <c r="E123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2932,8 +3283,11 @@
       <c r="E124" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2949,8 +3303,11 @@
       <c r="E125" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2966,8 +3323,11 @@
       <c r="E126" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -2983,8 +3343,11 @@
       <c r="E127" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3000,8 +3363,11 @@
       <c r="E128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -3017,8 +3383,11 @@
       <c r="E129" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3034,8 +3403,11 @@
       <c r="E132" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -3051,8 +3423,11 @@
       <c r="E133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3068,8 +3443,11 @@
       <c r="E134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3085,8 +3463,11 @@
       <c r="E135" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3102,8 +3483,11 @@
       <c r="E136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3119,8 +3503,11 @@
       <c r="E137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>134</v>
       </c>
@@ -3136,8 +3523,11 @@
       <c r="E138" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3153,8 +3543,11 @@
       <c r="E139" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3170,8 +3563,11 @@
       <c r="E140" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3187,8 +3583,11 @@
       <c r="E141" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3204,8 +3603,11 @@
       <c r="E142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3221,8 +3623,11 @@
       <c r="E143" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3238,8 +3643,11 @@
       <c r="E144" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3255,8 +3663,11 @@
       <c r="E145" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3272,8 +3683,11 @@
       <c r="E146" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3289,8 +3703,11 @@
       <c r="E147" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3306,8 +3723,11 @@
       <c r="E148" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3323,8 +3743,11 @@
       <c r="E149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3340,8 +3763,11 @@
       <c r="E150" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3357,8 +3783,11 @@
       <c r="E151" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3374,8 +3803,11 @@
       <c r="E152" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -3391,8 +3823,11 @@
       <c r="E153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3408,8 +3843,11 @@
       <c r="E154" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -3425,8 +3863,11 @@
       <c r="E157" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>154</v>
       </c>
@@ -3442,8 +3883,11 @@
       <c r="E158" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>154</v>
       </c>
@@ -3459,8 +3903,11 @@
       <c r="E159" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>154</v>
       </c>
@@ -3476,8 +3923,11 @@
       <c r="E160" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>156</v>
       </c>
@@ -3493,8 +3943,11 @@
       <c r="E161" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -3510,8 +3963,11 @@
       <c r="E162" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>158</v>
       </c>
@@ -3527,8 +3983,11 @@
       <c r="E163" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>159</v>
       </c>
@@ -3544,8 +4003,11 @@
       <c r="E164" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>161</v>
       </c>
@@ -3561,8 +4023,11 @@
       <c r="E167" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>161</v>
       </c>
@@ -3578,8 +4043,11 @@
       <c r="E168" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>65</v>
       </c>
@@ -3595,8 +4063,11 @@
       <c r="E169" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>65</v>
       </c>
@@ -3612,8 +4083,11 @@
       <c r="E170" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>65</v>
       </c>
@@ -3629,8 +4103,11 @@
       <c r="E171" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>64</v>
       </c>
@@ -3646,8 +4123,11 @@
       <c r="E172" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>66</v>
       </c>
@@ -3663,8 +4143,11 @@
       <c r="E173" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>163</v>
       </c>
@@ -3680,8 +4163,11 @@
       <c r="E176" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>164</v>
       </c>
@@ -3697,8 +4183,11 @@
       <c r="E177" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -3714,8 +4203,11 @@
       <c r="E180" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>168</v>
       </c>
@@ -3731,8 +4223,11 @@
       <c r="E181" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>171</v>
       </c>
@@ -3748,8 +4243,11 @@
       <c r="E182" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>169</v>
       </c>
@@ -3765,8 +4263,11 @@
       <c r="E183" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>179</v>
       </c>
@@ -3782,8 +4283,11 @@
       <c r="E186" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>179</v>
       </c>
@@ -3799,8 +4303,11 @@
       <c r="E187" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>179</v>
       </c>
@@ -3816,8 +4323,11 @@
       <c r="E188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -3833,8 +4343,11 @@
       <c r="E189" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>173</v>
       </c>
@@ -3850,8 +4363,11 @@
       <c r="E190" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>176</v>
       </c>
@@ -3867,8 +4383,11 @@
       <c r="E191" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>176</v>
       </c>
@@ -3884,8 +4403,11 @@
       <c r="E192" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>176</v>
       </c>
@@ -3901,8 +4423,11 @@
       <c r="E193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>178</v>
       </c>
@@ -3918,8 +4443,11 @@
       <c r="E194" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>189</v>
       </c>
@@ -3935,8 +4463,11 @@
       <c r="E195" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>180</v>
       </c>
@@ -3952,8 +4483,11 @@
       <c r="E196" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>191</v>
       </c>
@@ -3969,8 +4503,11 @@
       <c r="E197" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>183</v>
       </c>
@@ -3986,8 +4523,11 @@
       <c r="E198" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -4003,8 +4543,11 @@
       <c r="E199" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>188</v>
       </c>
@@ -4020,8 +4563,11 @@
       <c r="E200" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>184</v>
       </c>
@@ -4037,8 +4583,11 @@
       <c r="E201" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>186</v>
       </c>
@@ -4054,8 +4603,11 @@
       <c r="E202" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>175</v>
       </c>
@@ -4071,8 +4623,11 @@
       <c r="E203" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>175</v>
       </c>
@@ -4088,8 +4643,11 @@
       <c r="E204" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>175</v>
       </c>
@@ -4105,8 +4663,11 @@
       <c r="E205" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>175</v>
       </c>
@@ -4121,6 +4682,9 @@
       </c>
       <c r="E206" t="s">
         <v>192</v>
+      </c>
+      <c r="F206" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/classlist.xlsx
+++ b/classlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NitroQuake\Downloads\Scheduler GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8262A06E-C10E-4BBA-9C8E-E76559A457D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6DE650-E493-4CF9-968B-3113DBB5A3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{158F59F9-12D3-43FB-B3F8-B40C1404F3D3}"/>
   </bookViews>
@@ -975,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B60E540-2824-4767-945E-C47CF57DD70E}">
-  <dimension ref="A2:F206"/>
+  <dimension ref="A2:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,6 +2167,26 @@
         <v>195</v>
       </c>
     </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
+      <c r="D64">
+        <v>46</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
@@ -2178,10 +2198,10 @@
         <v>25</v>
       </c>
       <c r="D65">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F65" t="s">
         <v>195</v>
@@ -2198,10 +2218,10 @@
         <v>25</v>
       </c>
       <c r="D66">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
         <v>195</v>
@@ -2212,16 +2232,16 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>25</v>
       </c>
       <c r="D67">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
         <v>195</v>
@@ -2229,19 +2249,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>25</v>
       </c>
       <c r="D68">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
         <v>195</v>
@@ -2249,7 +2269,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -2258,10 +2278,10 @@
         <v>25</v>
       </c>
       <c r="D69">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F69" t="s">
         <v>195</v>
@@ -2269,22 +2289,22 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70">
         <v>25</v>
       </c>
       <c r="D70">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2298,33 +2318,33 @@
         <v>25</v>
       </c>
       <c r="D71">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
         <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>25</v>
       </c>
       <c r="D72">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2332,16 +2352,16 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C73">
         <v>25</v>
       </c>
       <c r="D73">
-        <v>56</v>
+        <v>12456</v>
       </c>
       <c r="E73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F73" t="s">
         <v>195</v>
@@ -2352,16 +2372,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>25</v>
       </c>
       <c r="D74">
-        <v>12456</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s">
         <v>195</v>
@@ -2378,10 +2398,10 @@
         <v>25</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F75" t="s">
         <v>195</v>
@@ -2389,19 +2409,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76">
         <v>25</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>456</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F76" t="s">
         <v>195</v>
@@ -2409,7 +2429,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -2418,10 +2438,10 @@
         <v>25</v>
       </c>
       <c r="D77">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
         <v>195</v>
@@ -2429,7 +2449,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -2438,10 +2458,10 @@
         <v>25</v>
       </c>
       <c r="D78">
-        <v>134</v>
+        <v>456</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s">
         <v>195</v>
@@ -2458,10 +2478,10 @@
         <v>25</v>
       </c>
       <c r="D79">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
         <v>195</v>
@@ -2469,7 +2489,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -2478,10 +2498,10 @@
         <v>25</v>
       </c>
       <c r="D80">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E80" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F80" t="s">
         <v>195</v>
@@ -2498,10 +2518,10 @@
         <v>25</v>
       </c>
       <c r="D81">
-        <v>123</v>
+        <v>456</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F81" t="s">
         <v>195</v>
@@ -2509,59 +2529,79 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>25</v>
       </c>
       <c r="D82">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F82" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>25</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>25</v>
+      </c>
+      <c r="D84">
+        <v>34</v>
+      </c>
+      <c r="E84" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>25</v>
+      </c>
+      <c r="D85">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>25</v>
       </c>
       <c r="D86">
-        <v>34</v>
+        <v>2356</v>
       </c>
       <c r="E86" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F86" t="s">
         <v>195</v>
@@ -2569,7 +2609,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -2578,10 +2618,10 @@
         <v>25</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F87" t="s">
         <v>195</v>
@@ -2589,19 +2629,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>25</v>
       </c>
       <c r="D88">
-        <v>2356</v>
+        <v>456</v>
       </c>
       <c r="E88" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F88" t="s">
         <v>195</v>
@@ -2609,16 +2649,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>25</v>
       </c>
       <c r="D89">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="E89" t="s">
         <v>99</v>
@@ -2629,19 +2669,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>25</v>
       </c>
       <c r="D90">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F90" t="s">
         <v>195</v>
@@ -2649,19 +2689,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>25</v>
       </c>
       <c r="D91">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F91" t="s">
         <v>195</v>
@@ -2669,7 +2709,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -2678,10 +2718,10 @@
         <v>25</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F92" t="s">
         <v>195</v>
@@ -2689,19 +2729,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>25</v>
       </c>
       <c r="D93">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F93" t="s">
         <v>195</v>
@@ -2709,19 +2749,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>25</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F94" t="s">
         <v>195</v>
@@ -2729,16 +2769,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <v>25</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E95" t="s">
         <v>86</v>
@@ -2749,7 +2789,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2761,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F96" t="s">
         <v>195</v>
@@ -2769,7 +2809,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -2778,10 +2818,10 @@
         <v>25</v>
       </c>
       <c r="D97">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E97" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F97" t="s">
         <v>195</v>
@@ -2789,16 +2829,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>25</v>
       </c>
       <c r="D98">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E98" t="s">
         <v>90</v>
@@ -2807,29 +2847,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>91</v>
-      </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99">
-        <v>25</v>
-      </c>
-      <c r="D99">
-        <v>34</v>
-      </c>
-      <c r="E99" t="s">
-        <v>90</v>
-      </c>
-      <c r="F99" t="s">
-        <v>195</v>
-      </c>
-    </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -2838,38 +2858,78 @@
         <v>25</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>25</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103">
         <v>25</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
       </c>
       <c r="F103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2878,18 +2938,18 @@
         <v>25</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
         <v>101</v>
       </c>
       <c r="F104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -2898,30 +2958,30 @@
         <v>25</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
         <v>101</v>
       </c>
       <c r="F105" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>25</v>
       </c>
       <c r="D106">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="E106" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F106" t="s">
         <v>193</v>
@@ -2929,7 +2989,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -2938,18 +2998,18 @@
         <v>25</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F107" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -2958,10 +3018,10 @@
         <v>25</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F108" t="s">
         <v>193</v>
@@ -2969,47 +3029,47 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>25</v>
       </c>
       <c r="D109">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="E109" t="s">
         <v>107</v>
       </c>
       <c r="F109" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110">
         <v>25</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E110" t="s">
         <v>107</v>
       </c>
       <c r="F110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3018,18 +3078,18 @@
         <v>25</v>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
         <v>107</v>
       </c>
       <c r="F111" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3038,38 +3098,38 @@
         <v>25</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F112" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>25</v>
       </c>
       <c r="D113">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F113" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3078,18 +3138,18 @@
         <v>25</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F114" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3098,7 +3158,7 @@
         <v>25</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E115" t="s">
         <v>114</v>
@@ -3109,7 +3169,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3118,18 +3178,18 @@
         <v>25</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E116" t="s">
         <v>114</v>
       </c>
       <c r="F116" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3138,18 +3198,18 @@
         <v>25</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E117" t="s">
         <v>114</v>
       </c>
       <c r="F117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -3158,10 +3218,10 @@
         <v>25</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F118" t="s">
         <v>195</v>
@@ -3169,7 +3229,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3178,18 +3238,18 @@
         <v>25</v>
       </c>
       <c r="D119">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F119" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3198,18 +3258,18 @@
         <v>25</v>
       </c>
       <c r="D120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F120" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3218,7 +3278,7 @@
         <v>25</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E121" t="s">
         <v>121</v>
@@ -3229,7 +3289,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3238,7 +3298,7 @@
         <v>25</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E122" t="s">
         <v>121</v>
@@ -3249,7 +3309,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3258,10 +3318,10 @@
         <v>25</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F123" t="s">
         <v>195</v>
@@ -3269,19 +3329,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124">
         <v>25</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E124" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F124" t="s">
         <v>195</v>
@@ -3289,67 +3349,47 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125">
         <v>25</v>
       </c>
       <c r="D125">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E125" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126">
         <v>25</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E126" t="s">
         <v>127</v>
       </c>
       <c r="F126" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-      <c r="C127">
-        <v>25</v>
-      </c>
-      <c r="D127">
-        <v>34</v>
-      </c>
-      <c r="E127" t="s">
-        <v>127</v>
-      </c>
-      <c r="F127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -3358,10 +3398,10 @@
         <v>25</v>
       </c>
       <c r="D128">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F128" t="s">
         <v>193</v>
@@ -3369,7 +3409,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -3378,18 +3418,58 @@
         <v>25</v>
       </c>
       <c r="D129">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F129" t="s">
         <v>194</v>
       </c>
     </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>25</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>132</v>
+      </c>
+      <c r="F130" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>25</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>132</v>
+      </c>
+      <c r="F131" t="s">
+        <v>194</v>
+      </c>
+    </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3398,10 +3478,10 @@
         <v>25</v>
       </c>
       <c r="D132">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E132" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F132" t="s">
         <v>193</v>
@@ -3409,7 +3489,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -3418,10 +3498,10 @@
         <v>25</v>
       </c>
       <c r="D133">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E133" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F133" t="s">
         <v>194</v>
@@ -3429,27 +3509,27 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134">
         <v>25</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F134" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -3458,18 +3538,18 @@
         <v>25</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F135" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -3478,58 +3558,58 @@
         <v>25</v>
       </c>
       <c r="D136">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E136" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F136" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>25</v>
       </c>
       <c r="D137">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>25</v>
       </c>
       <c r="D138">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3538,38 +3618,38 @@
         <v>25</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F139" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140">
         <v>25</v>
       </c>
       <c r="D140">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E140" t="s">
         <v>141</v>
       </c>
       <c r="F140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3578,7 +3658,7 @@
         <v>25</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E141" t="s">
         <v>141</v>
@@ -3589,7 +3669,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -3598,7 +3678,7 @@
         <v>25</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E142" t="s">
         <v>141</v>
@@ -3609,19 +3689,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143">
         <v>25</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F143" t="s">
         <v>193</v>
@@ -3629,7 +3709,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -3638,10 +3718,10 @@
         <v>25</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F144" t="s">
         <v>194</v>
@@ -3649,19 +3729,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>25</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="E145" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F145" t="s">
         <v>193</v>
@@ -3669,19 +3749,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146">
         <v>25</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>356</v>
       </c>
       <c r="E146" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F146" t="s">
         <v>194</v>
@@ -3689,47 +3769,47 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>25</v>
       </c>
       <c r="D147">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E147" t="s">
         <v>148</v>
       </c>
       <c r="F147" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C148">
         <v>25</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>23456</v>
       </c>
       <c r="E148" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -3738,70 +3818,50 @@
         <v>25</v>
       </c>
       <c r="D149">
-        <v>345</v>
+        <v>145</v>
       </c>
       <c r="E149" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F149" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150">
         <v>25</v>
       </c>
       <c r="D150">
-        <v>356</v>
+        <v>23</v>
       </c>
       <c r="E150" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F150" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>25</v>
-      </c>
-      <c r="D151">
-        <v>4</v>
-      </c>
-      <c r="E151" t="s">
-        <v>148</v>
-      </c>
-      <c r="F151" t="s">
-        <v>194</v>
-      </c>
-    </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152">
         <v>25</v>
       </c>
       <c r="D152">
-        <v>23456</v>
+        <v>1234</v>
       </c>
       <c r="E152" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F152" t="s">
         <v>193</v>
@@ -3809,7 +3869,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -3818,10 +3878,10 @@
         <v>25</v>
       </c>
       <c r="D153">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="E153" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F153" t="s">
         <v>194</v>
@@ -3829,107 +3889,127 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C154">
         <v>25</v>
       </c>
       <c r="D154">
-        <v>23</v>
+        <v>1356</v>
       </c>
       <c r="E154" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F154" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>25</v>
+      </c>
+      <c r="D155">
+        <v>136</v>
+      </c>
+      <c r="E155" t="s">
+        <v>157</v>
+      </c>
+      <c r="F155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>25</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>155</v>
+      </c>
+      <c r="F156" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>25</v>
       </c>
       <c r="D157">
-        <v>1234</v>
+        <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F157" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158">
         <v>25</v>
       </c>
       <c r="D158">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F158" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C159">
         <v>25</v>
       </c>
       <c r="D159">
-        <v>1356</v>
+        <v>2</v>
       </c>
       <c r="E159" t="s">
         <v>157</v>
       </c>
       <c r="F159" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>154</v>
-      </c>
-      <c r="B160">
-        <v>3</v>
-      </c>
-      <c r="C160">
-        <v>25</v>
-      </c>
-      <c r="D160">
-        <v>136</v>
-      </c>
-      <c r="E160" t="s">
-        <v>157</v>
-      </c>
-      <c r="F160" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3938,18 +4018,18 @@
         <v>25</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F161" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -3958,218 +4038,238 @@
         <v>25</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F162" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C163">
         <v>25</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>2356</v>
       </c>
       <c r="E163" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F163" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164">
         <v>25</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1356</v>
       </c>
       <c r="E164" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F164" t="s">
         <v>194</v>
       </c>
     </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>65</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>25</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165" t="s">
+        <v>63</v>
+      </c>
+      <c r="F165" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>64</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>25</v>
+      </c>
+      <c r="D166">
+        <v>456</v>
+      </c>
+      <c r="E166" t="s">
+        <v>63</v>
+      </c>
+      <c r="F166" t="s">
+        <v>193</v>
+      </c>
+    </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C167">
         <v>25</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E167" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="F167" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>161</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>25</v>
-      </c>
-      <c r="D168">
-        <v>2</v>
-      </c>
-      <c r="E168" t="s">
-        <v>162</v>
-      </c>
-      <c r="F168" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C169">
         <v>25</v>
       </c>
       <c r="D169">
-        <v>2356</v>
+        <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F169" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C170">
         <v>25</v>
       </c>
       <c r="D170">
-        <v>1356</v>
+        <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F170" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>65</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171">
-        <v>25</v>
-      </c>
-      <c r="D171">
-        <v>4</v>
-      </c>
-      <c r="E171" t="s">
-        <v>63</v>
-      </c>
-      <c r="F171" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172">
         <v>25</v>
       </c>
       <c r="D172">
-        <v>456</v>
+        <v>23</v>
       </c>
       <c r="E172" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="F172" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C173">
         <v>25</v>
       </c>
       <c r="D173">
-        <v>56</v>
+        <v>12356</v>
       </c>
       <c r="E173" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="F173" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>163</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176">
-        <v>25</v>
-      </c>
-      <c r="D176">
-        <v>2</v>
-      </c>
-      <c r="E176" t="s">
-        <v>165</v>
-      </c>
-      <c r="F176" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>25</v>
+      </c>
+      <c r="D174">
+        <v>23456</v>
+      </c>
+      <c r="E174" t="s">
+        <v>172</v>
+      </c>
+      <c r="F174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>25</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>167</v>
+      </c>
+      <c r="F175" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4178,30 +4278,70 @@
         <v>25</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="F177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>25</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>185</v>
+      </c>
+      <c r="F178" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>25</v>
+      </c>
+      <c r="D179">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>187</v>
+      </c>
+      <c r="F179" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180">
         <v>25</v>
       </c>
       <c r="D180">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="F180" t="s">
         <v>195</v>
@@ -4209,19 +4349,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B181">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C181">
         <v>25</v>
       </c>
       <c r="D181">
-        <v>12356</v>
+        <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F181" t="s">
         <v>195</v>
@@ -4229,19 +4369,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B182">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C182">
         <v>25</v>
       </c>
       <c r="D182">
-        <v>23456</v>
+        <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F182" t="s">
         <v>195</v>
@@ -4249,7 +4389,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4258,18 +4398,58 @@
         <v>25</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="F183" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>176</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>25</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>192</v>
+      </c>
+      <c r="F184" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>25</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>181</v>
+      </c>
+      <c r="F185" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4278,10 +4458,10 @@
         <v>25</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F186" t="s">
         <v>195</v>
@@ -4289,7 +4469,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4298,10 +4478,10 @@
         <v>25</v>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E187" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F187" t="s">
         <v>195</v>
@@ -4309,19 +4489,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188">
         <v>25</v>
       </c>
       <c r="D188">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F188" t="s">
         <v>195</v>
@@ -4329,7 +4509,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4338,10 +4518,10 @@
         <v>25</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F189" t="s">
         <v>195</v>
@@ -4349,7 +4529,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4361,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F190" t="s">
         <v>195</v>
@@ -4369,19 +4549,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C191">
         <v>25</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E191" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F191" t="s">
         <v>195</v>
@@ -4389,19 +4569,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192">
         <v>25</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F192" t="s">
         <v>195</v>
@@ -4409,7 +4589,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4418,10 +4598,10 @@
         <v>25</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F193" t="s">
         <v>195</v>
@@ -4429,19 +4609,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194">
         <v>25</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E194" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F194" t="s">
         <v>195</v>
@@ -4449,19 +4629,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195">
         <v>25</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E195" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F195" t="s">
         <v>195</v>
@@ -4469,7 +4649,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -4478,10 +4658,10 @@
         <v>25</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F196" t="s">
         <v>195</v>
@@ -4489,7 +4669,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4498,192 +4678,12 @@
         <v>25</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E197" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F197" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>183</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198">
-        <v>25</v>
-      </c>
-      <c r="D198">
-        <v>2</v>
-      </c>
-      <c r="E198" t="s">
-        <v>182</v>
-      </c>
-      <c r="F198" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>183</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199">
-        <v>25</v>
-      </c>
-      <c r="D199">
-        <v>2</v>
-      </c>
-      <c r="E199" t="s">
-        <v>192</v>
-      </c>
-      <c r="F199" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>188</v>
-      </c>
-      <c r="B200">
-        <v>2</v>
-      </c>
-      <c r="C200">
-        <v>25</v>
-      </c>
-      <c r="D200">
-        <v>46</v>
-      </c>
-      <c r="E200" t="s">
-        <v>187</v>
-      </c>
-      <c r="F200" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>184</v>
-      </c>
-      <c r="B201">
-        <v>2</v>
-      </c>
-      <c r="C201">
-        <v>25</v>
-      </c>
-      <c r="D201">
-        <v>16</v>
-      </c>
-      <c r="E201" t="s">
-        <v>185</v>
-      </c>
-      <c r="F201" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>186</v>
-      </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202">
-        <v>25</v>
-      </c>
-      <c r="D202">
-        <v>2</v>
-      </c>
-      <c r="E202" t="s">
-        <v>185</v>
-      </c>
-      <c r="F202" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>175</v>
-      </c>
-      <c r="B203">
-        <v>2</v>
-      </c>
-      <c r="C203">
-        <v>25</v>
-      </c>
-      <c r="D203">
-        <v>46</v>
-      </c>
-      <c r="E203" t="s">
-        <v>174</v>
-      </c>
-      <c r="F203" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>175</v>
-      </c>
-      <c r="B204">
-        <v>2</v>
-      </c>
-      <c r="C204">
-        <v>25</v>
-      </c>
-      <c r="D204">
-        <v>56</v>
-      </c>
-      <c r="E204" t="s">
-        <v>177</v>
-      </c>
-      <c r="F204" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>175</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205">
-        <v>25</v>
-      </c>
-      <c r="D205">
-        <v>6</v>
-      </c>
-      <c r="E205" t="s">
-        <v>182</v>
-      </c>
-      <c r="F205" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>175</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-      <c r="C206">
-        <v>25</v>
-      </c>
-      <c r="D206">
-        <v>6</v>
-      </c>
-      <c r="E206" t="s">
-        <v>192</v>
-      </c>
-      <c r="F206" t="s">
         <v>195</v>
       </c>
     </row>

--- a/classlist.xlsx
+++ b/classlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NitroQuake\Downloads\Scheduler GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6DE650-E493-4CF9-968B-3113DBB5A3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8518D0B8-E69D-43F6-B94A-0CC15C7DECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{158F59F9-12D3-43FB-B3F8-B40C1404F3D3}"/>
   </bookViews>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B60E540-2824-4767-945E-C47CF57DD70E}">
   <dimension ref="A2:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,7 +4044,7 @@
         <v>162</v>
       </c>
       <c r="F162" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4064,7 +4064,7 @@
         <v>162</v>
       </c>
       <c r="F163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">

--- a/classlist.xlsx
+++ b/classlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NitroQuake\Downloads\Scheduler GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8518D0B8-E69D-43F6-B94A-0CC15C7DECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8527C2B-42A5-4AE5-B852-416D6341B8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{158F59F9-12D3-43FB-B3F8-B40C1404F3D3}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{158F59F9-12D3-43FB-B3F8-B40C1404F3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="195">
   <si>
     <t>Algebra 2</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>Chalker</t>
-  </si>
-  <si>
-    <t>ES US Hist  11</t>
   </si>
   <si>
     <t>Firman</t>
@@ -977,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B60E540-2824-4767-945E-C47CF57DD70E}">
   <dimension ref="A2:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1044,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1124,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1164,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1224,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,7 +1241,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,7 +1261,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,7 +1281,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1304,7 +1301,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,7 +1321,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,7 +1341,7 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,7 +1381,7 @@
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1404,7 +1401,7 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1424,7 +1421,7 @@
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,7 +1441,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,7 +1461,7 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,7 +1481,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,7 +1501,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,7 +1521,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,7 +1541,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,7 +1561,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,7 +1581,7 @@
         <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,7 +1621,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,7 +1641,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,7 +1661,7 @@
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,7 +1681,7 @@
         <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,7 +1701,7 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,7 +1721,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,7 +1741,7 @@
         <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,7 +1761,7 @@
         <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,7 +1781,7 @@
         <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,7 +1801,7 @@
         <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,7 +1821,7 @@
         <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1844,7 +1841,7 @@
         <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,7 +1861,7 @@
         <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1884,7 +1881,7 @@
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1904,7 +1901,7 @@
         <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1944,7 +1941,7 @@
         <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,7 +1961,7 @@
         <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1984,7 +1981,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,7 +2001,7 @@
         <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,7 +2021,7 @@
         <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,7 +2041,7 @@
         <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,7 +2061,7 @@
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,7 +2081,7 @@
         <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,7 +2101,7 @@
         <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,7 +2121,7 @@
         <v>60</v>
       </c>
       <c r="F60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2144,7 +2141,7 @@
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,7 +2161,7 @@
         <v>68</v>
       </c>
       <c r="F62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,10 +2178,10 @@
         <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2201,10 +2198,10 @@
         <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2221,10 +2218,10 @@
         <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,10 +2238,10 @@
         <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,7 +2261,7 @@
         <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,12 +2281,12 @@
         <v>70</v>
       </c>
       <c r="F69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -2301,15 +2298,15 @@
         <v>234</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -2321,15 +2318,15 @@
         <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -2341,15 +2338,15 @@
         <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -2361,15 +2358,15 @@
         <v>12456</v>
       </c>
       <c r="E73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2381,15 +2378,15 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2401,15 +2398,15 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -2424,7 +2421,7 @@
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2444,12 +2441,12 @@
         <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -2461,15 +2458,15 @@
         <v>456</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -2481,10 +2478,10 @@
         <v>134</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2501,10 +2498,10 @@
         <v>123</v>
       </c>
       <c r="E80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2521,15 +2518,15 @@
         <v>456</v>
       </c>
       <c r="E81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2541,15 +2538,15 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -2561,15 +2558,15 @@
         <v>34</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2581,10 +2578,10 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,10 +2598,10 @@
         <v>2356</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2621,15 +2618,15 @@
         <v>45</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -2641,15 +2638,15 @@
         <v>456</v>
       </c>
       <c r="E88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -2661,35 +2658,35 @@
         <v>123</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>25</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
         <v>83</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>25</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>84</v>
-      </c>
       <c r="F90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2701,15 +2698,15 @@
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -2721,15 +2718,15 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -2741,15 +2738,15 @@
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -2761,15 +2758,15 @@
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -2781,15 +2778,15 @@
         <v>56</v>
       </c>
       <c r="E95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2801,15 +2798,15 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -2821,15 +2818,15 @@
         <v>34</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2841,35 +2838,35 @@
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>25</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100" t="s">
-        <v>101</v>
-      </c>
       <c r="F100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -2881,15 +2878,15 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -2901,15 +2898,15 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -2921,15 +2918,15 @@
         <v>45</v>
       </c>
       <c r="E103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2941,15 +2938,15 @@
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -2961,15 +2958,15 @@
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -2981,15 +2978,15 @@
         <v>134</v>
       </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3001,15 +2998,15 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3021,15 +3018,15 @@
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3041,15 +3038,15 @@
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -3061,15 +3058,15 @@
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3081,35 +3078,35 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>25</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
         <v>113</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <v>25</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112" t="s">
-        <v>114</v>
-      </c>
       <c r="F112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3121,15 +3118,15 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3141,15 +3138,15 @@
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3161,15 +3158,15 @@
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3181,15 +3178,15 @@
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3201,35 +3198,35 @@
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>25</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
         <v>120</v>
       </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>25</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" t="s">
-        <v>121</v>
-      </c>
       <c r="F118" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3241,15 +3238,15 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F119" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3261,15 +3258,15 @@
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3281,15 +3278,15 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F121" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3301,35 +3298,35 @@
         <v>6</v>
       </c>
       <c r="E122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F122" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>25</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
         <v>126</v>
       </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>25</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123" t="s">
-        <v>127</v>
-      </c>
       <c r="F123" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -3341,15 +3338,15 @@
         <v>34</v>
       </c>
       <c r="E124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -3361,15 +3358,15 @@
         <v>56</v>
       </c>
       <c r="E125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -3381,15 +3378,15 @@
         <v>56</v>
       </c>
       <c r="E126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -3401,15 +3398,15 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F128" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -3421,15 +3418,15 @@
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -3441,15 +3438,15 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3461,15 +3458,15 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F131" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3481,15 +3478,15 @@
         <v>34</v>
       </c>
       <c r="E132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F132" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -3501,15 +3498,15 @@
         <v>34</v>
       </c>
       <c r="E133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F133" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -3521,15 +3518,15 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F134" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -3541,15 +3538,15 @@
         <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F135" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -3561,15 +3558,15 @@
         <v>26</v>
       </c>
       <c r="E136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F136" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3581,35 +3578,35 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>25</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
         <v>140</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>25</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138" t="s">
-        <v>141</v>
-      </c>
       <c r="F138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3621,15 +3618,15 @@
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -3641,15 +3638,15 @@
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F140" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3661,15 +3658,15 @@
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -3681,15 +3678,15 @@
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -3701,35 +3698,35 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F143" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>25</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
         <v>147</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>25</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144" t="s">
-        <v>148</v>
-      </c>
       <c r="F144" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -3741,15 +3738,15 @@
         <v>345</v>
       </c>
       <c r="E145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F145" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -3761,15 +3758,15 @@
         <v>356</v>
       </c>
       <c r="E146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F146" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -3781,15 +3778,15 @@
         <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F147" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -3801,15 +3798,15 @@
         <v>23456</v>
       </c>
       <c r="E148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F148" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -3821,15 +3818,15 @@
         <v>145</v>
       </c>
       <c r="E149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F149" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -3841,15 +3838,15 @@
         <v>23</v>
       </c>
       <c r="E150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F150" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -3861,15 +3858,15 @@
         <v>1234</v>
       </c>
       <c r="E152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F152" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -3881,15 +3878,15 @@
         <v>456</v>
       </c>
       <c r="E153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F153" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -3901,15 +3898,15 @@
         <v>1356</v>
       </c>
       <c r="E154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -3921,15 +3918,15 @@
         <v>136</v>
       </c>
       <c r="E155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F155" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3941,15 +3938,15 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F156" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -3961,15 +3958,15 @@
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F157" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -3981,15 +3978,15 @@
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4001,50 +3998,50 @@
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>25</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
         <v>161</v>
       </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>25</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="E161" t="s">
-        <v>162</v>
-      </c>
       <c r="F161" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>25</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162" t="s">
         <v>161</v>
       </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <v>25</v>
-      </c>
-      <c r="D162">
-        <v>2</v>
-      </c>
-      <c r="E162" t="s">
-        <v>162</v>
-      </c>
       <c r="F162" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4061,10 +4058,10 @@
         <v>2356</v>
       </c>
       <c r="E163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4081,10 +4078,10 @@
         <v>1356</v>
       </c>
       <c r="E164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,7 +4101,7 @@
         <v>63</v>
       </c>
       <c r="F165" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,7 +4121,7 @@
         <v>63</v>
       </c>
       <c r="F166" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,12 +4141,12 @@
         <v>63</v>
       </c>
       <c r="F167" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4161,15 +4158,15 @@
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F169" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4181,15 +4178,15 @@
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F170" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -4201,15 +4198,15 @@
         <v>23</v>
       </c>
       <c r="E172" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B173">
         <v>5</v>
@@ -4221,15 +4218,15 @@
         <v>12356</v>
       </c>
       <c r="E173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F173" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B174">
         <v>5</v>
@@ -4241,15 +4238,15 @@
         <v>23456</v>
       </c>
       <c r="E174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -4261,15 +4258,15 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4281,15 +4278,15 @@
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -4301,15 +4298,15 @@
         <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -4321,15 +4318,15 @@
         <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F179" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4341,35 +4338,35 @@
         <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F180" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>172</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>25</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
         <v>173</v>
       </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181">
-        <v>25</v>
-      </c>
-      <c r="D181">
-        <v>2</v>
-      </c>
-      <c r="E181" t="s">
-        <v>174</v>
-      </c>
       <c r="F181" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4381,15 +4378,15 @@
         <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F182" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4401,15 +4398,15 @@
         <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F183" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -4421,15 +4418,15 @@
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F184" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4441,35 +4438,35 @@
         <v>1</v>
       </c>
       <c r="E185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F185" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>25</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186" t="s">
         <v>189</v>
       </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186">
-        <v>25</v>
-      </c>
-      <c r="D186">
-        <v>2</v>
-      </c>
-      <c r="E186" t="s">
-        <v>190</v>
-      </c>
       <c r="F186" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4481,15 +4478,15 @@
         <v>4</v>
       </c>
       <c r="E187" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F187" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4501,15 +4498,15 @@
         <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F188" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4521,15 +4518,15 @@
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4541,15 +4538,15 @@
         <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -4561,15 +4558,15 @@
         <v>46</v>
       </c>
       <c r="E191" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -4581,15 +4578,15 @@
         <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4601,15 +4598,15 @@
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B194">
         <v>2</v>
@@ -4621,15 +4618,15 @@
         <v>46</v>
       </c>
       <c r="E194" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -4641,15 +4638,15 @@
         <v>56</v>
       </c>
       <c r="E195" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F195" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -4661,15 +4658,15 @@
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4681,10 +4678,10 @@
         <v>6</v>
       </c>
       <c r="E197" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
